--- a/COM/EMPRESAS+SITES_EMPREGO.xlsx
+++ b/COM/EMPRESAS+SITES_EMPREGO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apatc\OneDrive\Desktop\CV 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apatc\OneDrive\Desktop\CESAE_SOFTDEV_2023-24\COM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F157A38-A8E5-414C-93D6-2754B3436F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18B8776-8C70-4BFF-958E-4A44861BD54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{05EBC074-EDBE-4439-8206-33FF21B89594}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="138">
   <si>
     <t>https://www.sonae.pt/pt/pessoas/oportunidades-de-carreira/</t>
   </si>
@@ -266,9 +266,6 @@
   </si>
   <si>
     <t>SIEMENS</t>
-  </si>
-  <si>
-    <t>ACCENTURE matosinhos</t>
   </si>
   <si>
     <t>DM.HR.LINKEDIN</t>
@@ -577,9 +574,6 @@
     <t>filipe.mendes@redlightsoft.com (DAVID WESLEY)</t>
   </si>
   <si>
-    <t>mifontes@deloitte.pt</t>
-  </si>
-  <si>
     <t>DEVOTEAM</t>
   </si>
   <si>
@@ -617,6 +611,37 @@
   </si>
   <si>
     <t>Home | Switch (switchpayments.com)</t>
+  </si>
+  <si>
+    <t>Daniel Mota</t>
+  </si>
+  <si>
+    <t>Miguel Fontes mifontes@deloitte.pt</t>
+  </si>
+  <si>
+    <t>EURONEXT</t>
+  </si>
+  <si>
+    <t>Não responde</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ACCENTURE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>matosinhos</t>
+    </r>
+  </si>
+  <si>
+    <t>DICONIUM</t>
   </si>
 </sst>
 </file>
@@ -821,7 +846,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
@@ -835,7 +860,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -867,14 +891,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3646,117 +3665,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249617CC-450D-4E6D-98C1-3D850E07E07A}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.44140625" style="25" customWidth="1"/>
+    <col min="1" max="1" width="43.44140625" customWidth="1"/>
     <col min="2" max="2" width="59.44140625" customWidth="1"/>
-    <col min="3" max="3" width="49.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.77734375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="67.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="B1" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="25" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="34"/>
+      <c r="B1" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="B3" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>92</v>
+      <c r="D3" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="A4" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>93</v>
+      <c r="D4" s="16" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="B7" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="18"/>
+    </row>
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="B9" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="25" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="B7" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" s="19"/>
-    </row>
-    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -3764,38 +3786,38 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="B10" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="14" t="s">
+      <c r="B10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>91</v>
+      <c r="D10" s="19" t="s">
+        <v>90</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="B11" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>92</v>
+      <c r="D11" s="15" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="B12" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E12" s="8" t="s">
@@ -3803,38 +3825,38 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="B13" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="13" t="s">
+      <c r="B13" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>93</v>
+      <c r="D13" s="16" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="B14" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" s="15" t="s">
+      <c r="B14" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="24" t="s">
-        <v>130</v>
+      <c r="D14" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="B15" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="13" t="s">
+      <c r="B15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="17" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="8" t="s">
@@ -3842,13 +3864,13 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="B16" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="14" t="s">
+      <c r="B16" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="20" t="s">
         <v>57</v>
       </c>
       <c r="E16" s="8" t="s">
@@ -3856,214 +3878,227 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="B17" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="13" t="s">
+      <c r="B17" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="16" t="s">
-        <v>92</v>
+      <c r="D17" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="B18" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="14" t="s">
+      <c r="B18" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="23" t="s">
-        <v>94</v>
+      <c r="C18" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="E18" s="8"/>
     </row>
     <row r="19" spans="2:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="B19" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" s="14" t="s">
+      <c r="B19" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="B20" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="13" t="s">
+      <c r="B20" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="16" t="s">
-        <v>92</v>
+      <c r="D20" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="C22" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="B23" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="B24" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="B26" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="B27" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="B28" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="C29" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="C30" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="C31" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="C32" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="C33" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="C22" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="B23" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="B24" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="37" t="s">
+      <c r="C34" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="B26" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="B27" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="B28" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="C29" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="C30" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="C31" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="C32" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="C33" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="25" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A35" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="26"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="8"/>
     </row>
     <row r="36" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="26" t="s">
-        <v>133</v>
+      <c r="E36" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="B37" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="C38" s="14" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -4077,7 +4112,7 @@
     <hyperlink ref="E17" r:id="rId7" xr:uid="{F6BAB62C-E1DB-4287-9322-BFFCEADD810B}"/>
     <hyperlink ref="E12" r:id="rId8" xr:uid="{F866C4C2-F18F-4087-9B90-71C36FCE9BD1}"/>
     <hyperlink ref="E20" r:id="rId9" display="https://ano.pt/" xr:uid="{02DBD94E-EA41-4398-852F-1E8CC6542749}"/>
-    <hyperlink ref="A6" r:id="rId10" xr:uid="{5CC68D32-26B2-4612-A4C1-5F874FA000A4}"/>
+    <hyperlink ref="A6" r:id="rId10" display="mifontes@deloitte.pt" xr:uid="{5CC68D32-26B2-4612-A4C1-5F874FA000A4}"/>
     <hyperlink ref="E22" r:id="rId11" display="https://www.switch.pt/" xr:uid="{DAB13E84-0424-4DC3-BD10-753813BBF2EA}"/>
     <hyperlink ref="E36" r:id="rId12" display="https://switchpayments.com/" xr:uid="{AFA98F84-E8EA-4E7E-BE8A-7407B866A43B}"/>
   </hyperlinks>
@@ -4088,7 +4123,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C44423-856E-4857-A387-3F00BD2B6619}">
-  <dimension ref="B1:C14"/>
+  <dimension ref="B1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="A8:C8"/>
@@ -4100,70 +4135,55 @@
     <col min="3" max="3" width="41.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:2" ht="18" x14ac:dyDescent="0.35">
       <c r="B1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="11"/>
-    </row>
-    <row r="2" spans="2:3" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="2:2" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="11"/>
-    </row>
-    <row r="3" spans="2:3" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="2:2" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="B4" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="11"/>
-    </row>
-    <row r="4" spans="2:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="B4" s="9" t="s">
+    </row>
+    <row r="5" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="B5" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="11"/>
-    </row>
-    <row r="5" spans="2:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="B5" s="9" t="s">
+    </row>
+    <row r="6" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="B6" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="11"/>
-    </row>
-    <row r="6" spans="2:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="B6" s="9" t="s">
+    </row>
+    <row r="7" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="B7" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="11"/>
-    </row>
-    <row r="7" spans="2:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="B7" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="11"/>
-    </row>
-    <row r="9" spans="2:3" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="2:2" ht="18" x14ac:dyDescent="0.35">
       <c r="B9" s="9"/>
-      <c r="C9" s="11"/>
-    </row>
-    <row r="10" spans="2:3" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="2:2" ht="18" x14ac:dyDescent="0.35">
       <c r="B10" s="9"/>
-      <c r="C10" s="11"/>
-    </row>
-    <row r="11" spans="2:3" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="2:2" ht="18" x14ac:dyDescent="0.35">
       <c r="B11" s="9"/>
-      <c r="C11" s="11"/>
-    </row>
-    <row r="12" spans="2:3" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="2:2" ht="18" x14ac:dyDescent="0.35">
       <c r="B12" s="9"/>
-      <c r="C12" s="11"/>
-    </row>
-    <row r="13" spans="2:3" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="2:2" ht="18" x14ac:dyDescent="0.35">
       <c r="B13" s="9"/>
-      <c r="C13" s="11"/>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C14" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4427,85 +4447,83 @@
     <col min="1" max="1" width="83.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="102" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25"/>
-    </row>
+    <row r="1" spans="1:1" ht="102" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="23" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
+    </row>
+    <row r="5" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="24" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="25" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-    </row>
-    <row r="5" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="28" t="s">
+    <row r="6" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="25" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="29" t="s">
+    <row r="7" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="25" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="29" t="s">
+    <row r="8" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="26" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="30" t="s">
+    <row r="9" spans="1:1" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="25" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="29" t="s">
+    <row r="10" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="27" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="31" t="s">
+    <row r="11" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="28" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="32" t="s">
+    <row r="12" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="27" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="31" t="s">
+    <row r="13" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="27" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="31" t="s">
+    <row r="14" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="27" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="31" t="s">
+    <row r="15" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="27" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="31" t="s">
+    <row r="16" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="27" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" s="31" t="s">
+    <row r="17" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="27" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="31" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -4526,21 +4544,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101000A128A6768934A4DA3AA0EF5AD82C041" ma:contentTypeVersion="0" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="061100c229c6f771cc0160d6bd9dd4e3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3bfbb31b5de685c4e8efa6530dbd60db">
     <xsd:element name="properties">
@@ -4654,17 +4657,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDF73E16-F98C-4287-9F8A-7320AAECAC8E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E3480F1-9E11-4DA1-8941-86B07CA49588}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4678,17 +4697,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E3480F1-9E11-4DA1-8941-86B07CA49588}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDF73E16-F98C-4287-9F8A-7320AAECAC8E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>